--- a/tests/output/07-image.xlsx
+++ b/tests/output/07-image.xlsx
@@ -71,6 +71,50 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1428750" cy="714375"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,5 +450,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>